--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/0.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/0.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03689631773893961</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626448010071932</v>
+        <v>-1.626340976771684</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02174597531048988</v>
+        <v>0.02184828655337442</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2226126231758354</v>
+        <v>-0.2231745480021397</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04329174896234844</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.650123618684976</v>
+        <v>-1.650074824092216</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02270297893624069</v>
+        <v>0.02277853185406313</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1979351513920832</v>
+        <v>-0.1985175384669645</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.0566762050060957</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.704432787436775</v>
+        <v>-1.704411538178637</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01853317400359472</v>
+        <v>-0.01831438534573393</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2080576683611679</v>
+        <v>-0.2086117230918658</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.06838487191143454</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.815117812046639</v>
+        <v>-1.815116238027518</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02747360261258263</v>
+        <v>-0.02704546941158884</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2277187412053348</v>
+        <v>-0.2283074243567013</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.0711409427909467</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782640288507281</v>
+        <v>-1.782499413795925</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0100035643852663</v>
+        <v>-0.00930469989540879</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2219169067242205</v>
+        <v>-0.2225181820285574</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06326909012697851</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.605752806665071</v>
+        <v>-1.605505685663027</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05362143653595011</v>
+        <v>0.05431085691107981</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2045444576824248</v>
+        <v>-0.2051598991588534</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.04740777515627313</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.345937340407573</v>
+        <v>-1.345568232923628</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0838205673972251</v>
+        <v>0.08498219350874502</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1934051243609798</v>
+        <v>-0.1940693604301687</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.02593232922503752</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9378933454589463</v>
+        <v>-0.9375824766824894</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1808934746460811</v>
+        <v>0.1821841703255477</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1668152193448473</v>
+        <v>-0.1676211171349533</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.001142451053184196</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4925222740582347</v>
+        <v>-0.4926088451099063</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1955790730478165</v>
+        <v>0.1966903305474548</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1193853011626937</v>
+        <v>-0.1201990690484061</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0249024261101304</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01128481595000506</v>
+        <v>-0.01190183144555492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1678212458436789</v>
+        <v>0.1691560140585419</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05473876183175314</v>
+        <v>-0.05548327287612837</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.05280669820904493</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5500072546675776</v>
+        <v>0.5486095256878626</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1340789979403561</v>
+        <v>0.1351068324265654</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03881936071923844</v>
+        <v>0.03797883450846387</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.08542256267021936</v>
       </c>
       <c r="E13" t="n">
-        <v>1.124829593651861</v>
+        <v>1.122863643769356</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01282443493095758</v>
+        <v>0.0140238375013887</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1393850163982607</v>
+        <v>0.1386656896598263</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1259257630690765</v>
       </c>
       <c r="E14" t="n">
-        <v>1.738445207899721</v>
+        <v>1.735860668502545</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1949838655396444</v>
+        <v>-0.1934192905330716</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2586311310088795</v>
+        <v>0.2579653209205693</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1755763147731649</v>
       </c>
       <c r="E15" t="n">
-        <v>2.387831980698261</v>
+        <v>2.384762643411724</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4686003314527069</v>
+        <v>-0.4668201158265158</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3828133695838973</v>
+        <v>0.3820940428454628</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2331889604471787</v>
       </c>
       <c r="E16" t="n">
-        <v>3.016296891336471</v>
+        <v>3.012682943433965</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7038296190354881</v>
+        <v>-0.7019061676692587</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5326914703141488</v>
+        <v>0.5318714063519511</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2977186543860058</v>
       </c>
       <c r="E17" t="n">
-        <v>3.618083751887757</v>
+        <v>3.614145556046263</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.948227567999846</v>
+        <v>-0.9460994941478474</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6954261592271842</v>
+        <v>0.6944864698117678</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3684233848336583</v>
       </c>
       <c r="E18" t="n">
-        <v>4.193564030864744</v>
+        <v>4.189200849860499</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.17118973756077</v>
+        <v>-1.168899539739278</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8317960278584332</v>
+        <v>0.8306816223205523</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4455025694867366</v>
       </c>
       <c r="E19" t="n">
-        <v>4.672434164214537</v>
+        <v>4.667740439194819</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.380572057152673</v>
+        <v>-1.378432965166825</v>
       </c>
       <c r="G19" t="n">
-        <v>1.006973337925351</v>
+        <v>1.00578652750789</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5267424860214606</v>
       </c>
       <c r="E20" t="n">
-        <v>5.043457229430172</v>
+        <v>5.038467588815648</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.553865266331394</v>
+        <v>-1.55162228908354</v>
       </c>
       <c r="G20" t="n">
-        <v>1.14101995433356</v>
+        <v>1.139919714967771</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6066908360852058</v>
       </c>
       <c r="E21" t="n">
-        <v>5.379719656371002</v>
+        <v>5.374821308865513</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.770127623502502</v>
+        <v>-1.76770520807482</v>
       </c>
       <c r="G21" t="n">
-        <v>1.273967905395101</v>
+        <v>1.27269609794509</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6827921800663411</v>
       </c>
       <c r="E22" t="n">
-        <v>5.678951709464111</v>
+        <v>5.673921144352434</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.923735362540675</v>
+        <v>-1.921036706757205</v>
       </c>
       <c r="G22" t="n">
-        <v>1.382088852856367</v>
+        <v>1.380746214545897</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7555520380249978</v>
       </c>
       <c r="E23" t="n">
-        <v>5.844500744566033</v>
+        <v>5.839388330460048</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.054421448124907</v>
+        <v>-2.051625203155917</v>
       </c>
       <c r="G23" t="n">
-        <v>1.493291729757139</v>
+        <v>1.491849928242028</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8246185061856326</v>
       </c>
       <c r="E24" t="n">
-        <v>6.006259541623861</v>
+        <v>6.000959819242442</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.148685518251802</v>
+        <v>-2.145906587493146</v>
       </c>
       <c r="G24" t="n">
-        <v>1.530477931497868</v>
+        <v>1.5292832509848</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8876820851261731</v>
       </c>
       <c r="E25" t="n">
-        <v>6.101031232917376</v>
+        <v>6.095774009052231</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.181794223458802</v>
+        <v>-2.179193156860852</v>
       </c>
       <c r="G25" t="n">
-        <v>1.601787293769274</v>
+        <v>1.600696498518213</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9431401520824765</v>
       </c>
       <c r="E26" t="n">
-        <v>6.15417326649073</v>
+        <v>6.149130109226083</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.202838859110592</v>
+        <v>-2.20050144071546</v>
       </c>
       <c r="G26" t="n">
-        <v>1.673304426564692</v>
+        <v>1.672078265669199</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9907936261464073</v>
       </c>
       <c r="E27" t="n">
-        <v>6.141832956579733</v>
+        <v>6.136898406634455</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.194334433798204</v>
+        <v>-2.192433805709233</v>
       </c>
       <c r="G27" t="n">
-        <v>1.644868197119274</v>
+        <v>1.643777401868213</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.030759633397052</v>
       </c>
       <c r="E28" t="n">
-        <v>6.080932582757487</v>
+        <v>6.076100344055094</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.206385911200443</v>
+        <v>-2.204877213872676</v>
       </c>
       <c r="G28" t="n">
-        <v>1.636677001612025</v>
+        <v>1.635789254827612</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.064078992543096</v>
       </c>
       <c r="E29" t="n">
-        <v>5.978604025662609</v>
+        <v>5.97391030064289</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.155523844324293</v>
+        <v>-2.154403929719487</v>
       </c>
       <c r="G29" t="n">
-        <v>1.609613316840381</v>
+        <v>1.608856213643036</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.092099769003144</v>
       </c>
       <c r="E30" t="n">
-        <v>5.846979824682081</v>
+        <v>5.842363226599306</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.153531923126287</v>
+        <v>-2.152672508686057</v>
       </c>
       <c r="G30" t="n">
-        <v>1.544269487038704</v>
+        <v>1.543613121065122</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.116013433164569</v>
       </c>
       <c r="E31" t="n">
-        <v>5.646682743458326</v>
+        <v>5.642277063937805</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.093151762623632</v>
+        <v>-2.092916446764998</v>
       </c>
       <c r="G31" t="n">
-        <v>1.480194316648796</v>
+        <v>1.479722110912406</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.135934313308396</v>
       </c>
       <c r="E32" t="n">
-        <v>5.460907562647691</v>
+        <v>5.457038623647534</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.016053945033642</v>
+        <v>-2.016061815129249</v>
       </c>
       <c r="G32" t="n">
-        <v>1.43587151221209</v>
+        <v>1.435457545183188</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.151228040402491</v>
       </c>
       <c r="E33" t="n">
-        <v>5.190860972101738</v>
+        <v>5.187440628551152</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.980516528322476</v>
+        <v>-1.98065425499559</v>
       </c>
       <c r="G33" t="n">
-        <v>1.374994748676664</v>
+        <v>1.374719295330437</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.159973966160402</v>
       </c>
       <c r="E34" t="n">
-        <v>4.959250354478828</v>
+        <v>4.95650526513128</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.910523833046038</v>
+        <v>-1.910829979765131</v>
       </c>
       <c r="G34" t="n">
-        <v>1.279555673275719</v>
+        <v>1.279332162560494</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.159515230823622</v>
       </c>
       <c r="E35" t="n">
-        <v>4.66385733402257</v>
+        <v>4.661738704285299</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.873554058934488</v>
+        <v>-1.873853122567535</v>
       </c>
       <c r="G35" t="n">
-        <v>1.193121561267734</v>
+        <v>1.192926382896693</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.147802900628385</v>
       </c>
       <c r="E36" t="n">
-        <v>4.283890692159705</v>
+        <v>4.282595274422875</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.832923903356353</v>
+        <v>-1.833412636293517</v>
       </c>
       <c r="G36" t="n">
-        <v>1.143269227657899</v>
+        <v>1.14319839679744</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.123800605208953</v>
       </c>
       <c r="E37" t="n">
-        <v>3.969637774592023</v>
+        <v>3.968600495991086</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.791008561165677</v>
+        <v>-1.791489424007234</v>
       </c>
       <c r="G37" t="n">
-        <v>1.060159444034101</v>
+        <v>1.060118519536947</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.087522079886765</v>
       </c>
       <c r="E38" t="n">
-        <v>3.679124213411797</v>
+        <v>3.678656729732771</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.713889494317549</v>
+        <v>-1.714486047564522</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9801536261175082</v>
+        <v>0.9803393603738217</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.040148404474065</v>
       </c>
       <c r="E39" t="n">
-        <v>3.330393981011145</v>
+        <v>3.330449071680391</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.678758174539679</v>
+        <v>-1.679165845492095</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8964756215909211</v>
+        <v>0.8966707999619624</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9839477957868362</v>
       </c>
       <c r="E40" t="n">
-        <v>2.998200393498878</v>
+        <v>2.99855454780117</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.643130251729038</v>
+        <v>-1.643237285029286</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8350322111718275</v>
+        <v>0.8352494258105669</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9214374393185074</v>
       </c>
       <c r="E41" t="n">
-        <v>2.674087820155368</v>
+        <v>2.67467178124937</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.622793924681833</v>
+        <v>-1.62299618613892</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7813754733458083</v>
+        <v>0.7815187090858466</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8546207684434901</v>
       </c>
       <c r="E42" t="n">
-        <v>2.337326429153086</v>
+        <v>2.338017423547337</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.571997966608778</v>
+        <v>-1.572140415339255</v>
       </c>
       <c r="G42" t="n">
-        <v>0.717552146015308</v>
+        <v>0.7179409287382693</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7852041573822365</v>
       </c>
       <c r="E43" t="n">
-        <v>2.078419171928578</v>
+        <v>2.079243957948139</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.519232910614975</v>
+        <v>-1.51934781401083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6415836871448516</v>
+        <v>0.6419897840781472</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7153530684168212</v>
       </c>
       <c r="E44" t="n">
-        <v>1.825438096695768</v>
+        <v>1.826187329797507</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.502663998334604</v>
+        <v>-1.502545946900506</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5575672685071849</v>
+        <v>0.5578600360637468</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6471225060380197</v>
       </c>
       <c r="E45" t="n">
-        <v>1.600183368284669</v>
+        <v>1.600883806793648</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.426206019517423</v>
+        <v>-1.425907742893936</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5038601620692841</v>
+        <v>0.5040820987653875</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5817945627446237</v>
       </c>
       <c r="E46" t="n">
-        <v>1.385885386976944</v>
+        <v>1.386677118594958</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.362239456446884</v>
+        <v>-1.3620891376208</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4406569982725762</v>
+        <v>0.4409135633893482</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5201161527186837</v>
       </c>
       <c r="E47" t="n">
-        <v>1.235679890269462</v>
+        <v>1.236265425382586</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.314317657289324</v>
+        <v>-1.314209836979515</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3762827642496207</v>
+        <v>0.3765519215193631</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4616634228773562</v>
       </c>
       <c r="E48" t="n">
-        <v>1.024893545621359</v>
+        <v>1.025556207671427</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.237647972900328</v>
+        <v>-1.237463025653575</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2912888797376262</v>
+        <v>0.2914919282042739</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4058572366829411</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8675388540649293</v>
+        <v>0.8681779058281773</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.167361723057767</v>
+        <v>-1.167165757677165</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2475437403184375</v>
+        <v>0.2476995682114462</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.352667519465707</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7702015116036948</v>
+        <v>0.7706910315504193</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.093975442555804</v>
+        <v>-1.09392113889612</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2102914297746141</v>
+        <v>0.2104283694381672</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3032309094473059</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6345997643036405</v>
+        <v>0.634994843103087</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.06224006903214</v>
+        <v>-1.062173173219485</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1683422461728294</v>
+        <v>0.1685059441614447</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2578722708345305</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4629514051066791</v>
+        <v>0.4632111182616938</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.026069896634211</v>
+        <v>-1.02592351285593</v>
       </c>
       <c r="G52" t="n">
-        <v>0.125499019710146</v>
+        <v>0.1257067902341577</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.216135621041669</v>
       </c>
       <c r="E53" t="n">
-        <v>0.404457706520903</v>
+        <v>0.4045316854196042</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.027832798050068</v>
+        <v>-1.027474708699972</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09893272498083301</v>
+        <v>0.09908697885472047</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1769438271575565</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2476444775422007</v>
+        <v>0.2476901240967184</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9672881525492366</v>
+        <v>-0.9669237671226555</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05352227333130816</v>
+        <v>0.05353801352252117</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1390960298890515</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1294608258384599</v>
+        <v>0.1295001763164924</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9452416537267385</v>
+        <v>-0.9446679237570245</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02645386650230024</v>
+        <v>0.02645858855966414</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1016745520059637</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04233729345534547</v>
+        <v>0.04226174053752304</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9296997889230155</v>
+        <v>-0.9290662462266921</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008305197753382853</v>
+        <v>-0.008398064881539593</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.06470692016247147</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.06859013009919919</v>
+        <v>-0.06888761971312503</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9310841387401996</v>
+        <v>-0.9303262485332933</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04966884624204363</v>
+        <v>-0.04981680403944589</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.02859344584244583</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1256860997052603</v>
+        <v>-0.1259080364013637</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9113105235288597</v>
+        <v>-0.9105337450924977</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08022213140561128</v>
+        <v>-0.08037638527949875</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.006190099929703094</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2055612740347851</v>
+        <v>-0.2058304313045275</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.922140562092969</v>
+        <v>-0.9211017094729106</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1050192286425823</v>
+        <v>-0.1051404281149225</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.03953136255446312</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3001975996838676</v>
+        <v>-0.3003298172900569</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9185636036398132</v>
+        <v>-0.9174413280063258</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1243969780449151</v>
+        <v>-0.1245496578996813</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.07190536803260127</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3932961086514394</v>
+        <v>-0.3934472144870843</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8999878169797831</v>
+        <v>-0.8988576712506893</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1480167089791532</v>
+        <v>-0.1480230050556384</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1040541002871836</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5032696766184759</v>
+        <v>-0.503264954561112</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8891373161670968</v>
+        <v>-0.887860786659722</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1764513644054501</v>
+        <v>-0.1765033070364531</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1360812546628426</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5661407223805892</v>
+        <v>-0.5661391483614679</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8995030190904225</v>
+        <v>-0.8981737599424841</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1982294929677665</v>
+        <v>-0.1982342150251303</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1667892648842102</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6883995095893776</v>
+        <v>-0.6882987723656143</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9220547780508581</v>
+        <v>-0.9207058436639034</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2355856887735957</v>
+        <v>-0.2355526343720483</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1948748295134625</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8120560257778808</v>
+        <v>-0.8117317778388929</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9558269323174857</v>
+        <v>-0.954448878576787</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2823560929439243</v>
+        <v>-0.2821577665346404</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2198601269558466</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9083214612175097</v>
+        <v>-0.9078256451942999</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9844504700383387</v>
+        <v>-0.9830983876131414</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3102146573718252</v>
+        <v>-0.3098620770886538</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2413806108985959</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9521169692485799</v>
+        <v>-0.9516502725791143</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.023414526376577</v>
+        <v>-1.022076610123471</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3511895231375247</v>
+        <v>-0.3507928703189569</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2587595378485721</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9979823124241607</v>
+        <v>-0.9974188135787351</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.036977849144824</v>
+        <v>-1.035343230287354</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3750154505766532</v>
+        <v>-0.3744188973296803</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.271637892497331</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.067634232560837</v>
+        <v>-1.066770883072804</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.08650357378699</v>
+        <v>-1.084798124069061</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3954493668093787</v>
+        <v>-0.3947741126063407</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2800526270641621</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.097352500580555</v>
+        <v>-1.096255409253009</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.13344475903198</v>
+        <v>-1.131438671661882</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4099319167444663</v>
+        <v>-0.4091669434515142</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.283935822687068</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.119653203491143</v>
+        <v>-1.118453800920712</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.142990397993108</v>
+        <v>-1.140865472179352</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4400759569364958</v>
+        <v>-0.4392291346492361</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2830059321049193</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.149875944639238</v>
+        <v>-1.148256278963419</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.187376950204227</v>
+        <v>-1.18509383546878</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4187212395178094</v>
+        <v>-0.4177957162744846</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2774456867547226</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.126851192932851</v>
+        <v>-1.125071764316221</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.210183700262313</v>
+        <v>-1.207979286482931</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4266243895258601</v>
+        <v>-0.4256327574794407</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2676828430865597</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.133282635062486</v>
+        <v>-1.1312663165681</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.233721582202243</v>
+        <v>-1.231423514285144</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4308238725414904</v>
+        <v>-0.429800760112645</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2541324090070093</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.09388572346589</v>
+        <v>-1.091635663131991</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.24958218587803</v>
+        <v>-1.247374624060406</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4390245121634669</v>
+        <v>-0.4379022365299796</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2376512032486573</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.005580102722679</v>
+        <v>-1.003255276480518</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.268386992320209</v>
+        <v>-1.265836294334141</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4130516226428843</v>
+        <v>-0.4118837004548792</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2192964601767746</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9460939850809229</v>
+        <v>-0.9435409260661731</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.276946508301842</v>
+        <v>-1.274340719646529</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3961324911080232</v>
+        <v>-0.3948874419830743</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2005485487822115</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7951416163003837</v>
+        <v>-0.7928718807274681</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.263265134099497</v>
+        <v>-1.260761656687068</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3529650167063518</v>
+        <v>-0.3517231156196456</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1820565407662192</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6815745626794177</v>
+        <v>-0.6793158452403513</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.281697685019488</v>
+        <v>-1.279402765140632</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3376435145796109</v>
+        <v>-0.3364236497606029</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1634718851558877</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.52074915896052</v>
+        <v>-0.5187989492692284</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.274847553803588</v>
+        <v>-1.272821004184913</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3154089204721174</v>
+        <v>-0.3141780375192603</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1440257219015251</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3749367496205882</v>
+        <v>-0.3731030173442729</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.289912490813557</v>
+        <v>-1.288199171000021</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2919796458515567</v>
+        <v>-0.2908007055297025</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1227224230186657</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2120352146806948</v>
+        <v>-0.2103699024503586</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.301585416617123</v>
+        <v>-1.299955519817016</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2662192489123497</v>
+        <v>-0.2650623448581936</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09916349134518533</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.01611390661415556</v>
+        <v>-0.01455562768406789</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.278067996925769</v>
+        <v>-1.276811929666971</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.200001838498351</v>
+        <v>-0.1990322427196298</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.07352561477017887</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1492934667668485</v>
+        <v>0.1506817516318357</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.276582122875261</v>
+        <v>-1.275344156836358</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1767992226312576</v>
+        <v>-0.1757288896287731</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04659370159702101</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3205341550113929</v>
+        <v>0.3216753188743359</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.193610852934138</v>
+        <v>-1.192751438493908</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1304852840061062</v>
+        <v>-0.1295093921508997</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.01905942914421087</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5278230291719657</v>
+        <v>0.5285360598339149</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.122915358120039</v>
+        <v>-1.122173208104346</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07575663915848123</v>
+        <v>-0.07499166586552909</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.008416660186100417</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7192741229340109</v>
+        <v>0.7197164223070964</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.037501210502657</v>
+        <v>-1.03699673737428</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02858643413134222</v>
+        <v>-0.02792534610039593</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03552780984872296</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8793188131687436</v>
+        <v>0.8796005625914565</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9104629142320392</v>
+        <v>-0.9102661618418766</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.003863315793072313</v>
+        <v>-0.003265188526978051</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.0620065475010016</v>
       </c>
       <c r="E89" t="n">
-        <v>1.020324168112223</v>
+        <v>1.020450089641927</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8015525961814414</v>
+        <v>-0.8016832397685093</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02963181110820632</v>
+        <v>0.03022364229781538</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08649407702921851</v>
       </c>
       <c r="E90" t="n">
-        <v>1.125422998860591</v>
+        <v>1.125101898959846</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6553057575640305</v>
+        <v>-0.6556284314838972</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04814384999382371</v>
+        <v>0.04867114639945944</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.106328658742377</v>
       </c>
       <c r="E91" t="n">
-        <v>1.226627706302862</v>
+        <v>1.226256237790235</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4801646499369031</v>
+        <v>-0.4807328708396926</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02296898816774051</v>
+        <v>0.02346008213358633</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1182494886957763</v>
       </c>
       <c r="E92" t="n">
-        <v>1.265172286545273</v>
+        <v>1.264600917604241</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.328932892762333</v>
+        <v>-0.3296537935198887</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0506323742246001</v>
+        <v>0.0510998579036264</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1206070417800184</v>
       </c>
       <c r="E93" t="n">
-        <v>1.296597578302041</v>
+        <v>1.295735015823568</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.220511307648899</v>
+        <v>-0.2212998912286706</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04028162448292678</v>
+        <v>0.04057596605861</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1134739914650675</v>
       </c>
       <c r="E94" t="n">
-        <v>1.249235342942103</v>
+        <v>1.248171306016104</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09190607534302628</v>
+        <v>-0.09283159858635109</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05698039334080578</v>
+        <v>0.057274734916489</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.09872231117741394</v>
       </c>
       <c r="E95" t="n">
-        <v>1.219953865228547</v>
+        <v>1.218787517059663</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.005764730891603544</v>
+        <v>-0.006551740452253887</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01371532975361377</v>
+        <v>0.01397189487038578</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.07987160835465407</v>
       </c>
       <c r="E96" t="n">
-        <v>1.131457788171658</v>
+        <v>1.130193850817254</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07131655949761244</v>
+        <v>0.07062399108424014</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02813941270089282</v>
+        <v>-0.02778211036035757</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.06059334990342221</v>
       </c>
       <c r="E97" t="n">
-        <v>1.069058948145935</v>
+        <v>1.067931950455084</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1190770216952392</v>
+        <v>0.1184631542379319</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01443600223084903</v>
+        <v>-0.01416212290374271</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.04327624400941073</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9679392377362149</v>
+        <v>0.9668027959306358</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1143455202166093</v>
+        <v>0.1138213718492162</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06780469455767016</v>
+        <v>-0.06746313240834791</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03027721125556963</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9082398405035225</v>
+        <v>0.9073017251072273</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1271926642846656</v>
+        <v>0.126723606586518</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.06052170808341187</v>
+        <v>-0.06010459301626719</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.01972046270364225</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8543391297137017</v>
+        <v>0.8535961926884478</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1194201578636828</v>
+        <v>0.119023505045115</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06822653168217874</v>
+        <v>-0.06788969159022039</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01067304123130095</v>
       </c>
       <c r="E101" t="n">
-        <v>0.774186928018828</v>
+        <v>0.7735116738157901</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1133979607055863</v>
+        <v>0.113045380422415</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06532089238425767</v>
+        <v>-0.06508478951606256</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.003835461087617464</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7505971034478947</v>
+        <v>0.7499879580479513</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1115532102954219</v>
+        <v>0.1112997932168925</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06431352014662522</v>
+        <v>-0.06419546871252768</v>
       </c>
     </row>
   </sheetData>
